--- a/analyses/inputs/LB/Vietnam_input.xlsx
+++ b/analyses/inputs/LB/Vietnam_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308FE5BF-1BEF-4C82-A805-EA10DCE930A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB0F6EA-AC4D-4434-A4CA-EA3F824862AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -2977,7 +2977,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3307,6 +3307,9 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6207,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7070,8 +7073,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7605,24 +7608,24 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
-        <v>6.2834695162500009E-2</v>
+        <f>diarrhoea_1mo</f>
+        <v>1.6337020742250001</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
-        <v>7.5161085670000002E-2</v>
+        <f>diarrhoea_1_5mo</f>
+        <v>1.95418822742</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
-        <v>7.5161085670000002E-2</v>
+        <f>diarrhoea_6_11mo</f>
+        <v>1.95418822742</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
-        <v>5.3190443066923075E-2</v>
+        <f>diarrhoea_12_23mo</f>
+        <v>1.38295151974</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
-        <v>5.3190443066923075E-2</v>
+        <f>diarrhoea_24_59mo</f>
+        <v>1.38295151974</v>
       </c>
       <c r="H12" s="94">
         <v>0</v>
@@ -8837,7 +8840,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -11829,7 +11832,7 @@
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -11852,7 +11855,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="145"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
       </c>
@@ -11874,7 +11877,7 @@
       <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
       </c>
@@ -11896,7 +11899,7 @@
       <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -11920,7 +11923,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
       </c>
@@ -11941,7 +11944,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
       </c>
@@ -11962,7 +11965,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -11985,7 +11988,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
       </c>
@@ -12006,7 +12009,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
       </c>
@@ -12027,7 +12030,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -12050,7 +12053,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
       </c>
@@ -12071,7 +12074,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
       </c>
@@ -12092,7 +12095,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -12115,7 +12118,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
       </c>
@@ -12136,7 +12139,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
       </c>
@@ -12190,7 +12193,7 @@
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12213,7 +12216,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
       </c>
@@ -12234,7 +12237,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
       </c>
@@ -12255,7 +12258,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -12278,7 +12281,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
       </c>
@@ -12299,7 +12302,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
       </c>
@@ -12320,7 +12323,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -12343,7 +12346,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
       </c>
@@ -12364,7 +12367,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
       </c>
@@ -12385,7 +12388,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -12408,7 +12411,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
       </c>
@@ -12429,7 +12432,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="145"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
       </c>
@@ -12450,7 +12453,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -12473,7 +12476,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="145"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
       </c>
@@ -12494,7 +12497,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="145"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
       </c>
@@ -12548,7 +12551,7 @@
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -12571,7 +12574,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="145"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
       </c>
@@ -12592,7 +12595,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
       </c>
@@ -12613,7 +12616,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -12636,7 +12639,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="145"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
       </c>
@@ -12657,7 +12660,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="145"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
       </c>
@@ -12678,7 +12681,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -12701,7 +12704,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
       </c>
@@ -12722,7 +12725,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
       </c>
@@ -12743,7 +12746,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -12766,7 +12769,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
       </c>
@@ -12787,7 +12790,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
       </c>
@@ -12808,7 +12811,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -12831,7 +12834,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="145"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
       </c>
@@ -12852,7 +12855,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
       </c>
@@ -21320,7 +21323,9 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21458,7 +21463,10 @@
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <f>'Nutritional status distribution'!E14</f>
+        <v>0.38665276676100002</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -21472,7 +21480,10 @@
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <f>'Nutritional status distribution'!H14</f>
+        <v>0.373</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -21486,7 +21497,10 @@
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <f>'Nutritional status distribution'!L14</f>
+        <v>0.10573165414000001</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -21503,7 +21517,10 @@
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <f>SUM('Breastfeeding distribution'!D2)</f>
+        <v>0.155</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -21517,7 +21534,10 @@
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <f>'Breastfeeding distribution'!F4</f>
+        <v>0.85449999999999993</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -21534,7 +21554,7 @@
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="145">
         <v>12.157</v>
       </c>
       <c r="D13" s="28">
@@ -21572,7 +21592,10 @@
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="145">
+        <f>maternal_mortality</f>
+        <v>0.54</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -21596,7 +21619,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21711,9 +21734,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
